--- a/lib/PHPExcel/templates/Report LoS_USA.xlsx
+++ b/lib/PHPExcel/templates/Report LoS_USA.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="576"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="576" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="En-tête" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="99">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -354,6 +354,9 @@
   <si>
     <t>The results presented in this report relate only to the items tested.</t>
   </si>
+  <si>
+    <t>Job Number :</t>
+  </si>
 </sst>
 </file>
 
@@ -367,7 +370,7 @@
     <numFmt numFmtId="168" formatCode="0.000"/>
     <numFmt numFmtId="169" formatCode="#0.0#"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -481,6 +484,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="MS Sans Serif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -730,10 +744,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="108">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1003,12 +1018,25 @@
     <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1415,7 +1443,7 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
@@ -1496,20 +1524,20 @@
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
       <c r="H7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1522,20 +1550,20 @@
       <c r="B8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
       <c r="H9" s="10" t="s">
         <v>55</v>
       </c>
@@ -1880,11 +1908,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A4:CY74"/>
+  <dimension ref="A1:CY74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B52" sqref="B52"/>
+      <selection pane="topRight" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1897,10 +1925,17 @@
     <col min="88" max="16384" width="11.42578125" style="29"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="103" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="104"/>
+      <c r="D1" s="105"/>
+      <c r="P1" s="106" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="32"/>
     </row>
-    <row r="5" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
         <v>79</v>
       </c>
@@ -1910,7 +1945,7 @@
       </c>
       <c r="D5" s="49"/>
     </row>
-    <row r="6" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33" t="s">
         <v>80</v>
       </c>
@@ -1918,7 +1953,7 @@
       <c r="C6" s="22"/>
       <c r="D6" s="49"/>
     </row>
-    <row r="7" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
         <v>81</v>
       </c>
@@ -1928,7 +1963,7 @@
       </c>
       <c r="D7" s="50"/>
     </row>
-    <row r="8" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
         <v>82</v>
       </c>
@@ -1938,7 +1973,7 @@
       </c>
       <c r="D8" s="50"/>
     </row>
-    <row r="9" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
         <v>83</v>
       </c>
@@ -1948,7 +1983,7 @@
       </c>
       <c r="D9" s="50"/>
     </row>
-    <row r="10" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
         <v>84</v>
       </c>
@@ -1956,7 +1991,7 @@
       <c r="C10" s="36"/>
       <c r="D10" s="94"/>
     </row>
-    <row r="11" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
         <v>3</v>
       </c>
@@ -1966,7 +2001,7 @@
       </c>
       <c r="D11" s="50"/>
     </row>
-    <row r="12" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
         <v>85</v>
       </c>
@@ -1976,7 +2011,7 @@
       </c>
       <c r="D12" s="50"/>
     </row>
-    <row r="13" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="33" t="s">
         <v>6</v>
       </c>
@@ -1986,7 +2021,7 @@
       </c>
       <c r="D13" s="50"/>
     </row>
-    <row r="14" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="81"/>
       <c r="B14" s="82" t="s">
         <v>86</v>
@@ -1996,7 +2031,7 @@
       </c>
       <c r="D14" s="99"/>
     </row>
-    <row r="15" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="84"/>
       <c r="B15" s="85" t="s">
         <v>86</v>
@@ -2006,7 +2041,7 @@
       </c>
       <c r="D15" s="100"/>
     </row>
-    <row r="16" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="65" t="s">
         <v>72</v>
       </c>
@@ -2462,6 +2497,7 @@
     </row>
     <row r="51" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="46"/>
+      <c r="D51" s="57"/>
     </row>
     <row r="52" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="29" t="s">
